--- a/results/I3_N5_M3_T30_C200_DepLowerLeft_s3_P1_res.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepLowerLeft_s3_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1180.808829430947</v>
+        <v>1081.889623723861</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.575377337951518</v>
+        <v>3.077407377069869</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.441553087125036</v>
+        <v>1.314377419160874</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.960000000003</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>225.33</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,56 +584,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -868,7 +824,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -929,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.53018219295432</v>
+        <v>2.469817807045693</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24.4246226620485</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.151333236201161</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.38703688534935</v>
+        <v>12.69023945846941</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.33301651610693</v>
+        <v>12.35722294236247</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -999,7 +955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,13 +987,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1045,127 +1001,15 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1268,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>294.3350000000003</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1123,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>291.7350000000003</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>289.3450000000003</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -1301,7 +1145,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>299.3750000000003</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1156,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>291.1900000000003</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -1323,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>228.6150000000007</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -1334,7 +1178,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>232.2950000000007</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -1345,7 +1189,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>219.9700000000007</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -1356,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>235.1950000000007</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -1367,7 +1211,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>228.0050000000007</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -1378,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>35.25999999999986</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18">
@@ -1389,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>27.32499999999985</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19">
@@ -1400,7 +1244,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>30.18999999999986</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20">
@@ -1411,7 +1255,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>25.3</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1266,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>28.38999999999985</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
@@ -1433,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>96.95</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23">
@@ -1444,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>89.99000000000015</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24">
@@ -1455,7 +1299,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>96.48000000000015</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1310,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>90</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26">
@@ -1477,7 +1321,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>89.96500000000015</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27">
@@ -1488,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>142.9250000000009</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>135.4350000000009</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29">
@@ -1510,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>138.8400000000009</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
@@ -1521,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>145.3200000000009</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31">
@@ -1532,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>141.4650000000009</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32">
@@ -1543,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>294.3350000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1554,7 +1398,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>291.7350000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1565,7 +1409,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>289.3450000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1576,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>299.3750000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1587,7 +1431,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>291.1900000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1598,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38">
@@ -1609,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39">
@@ -1620,7 +1464,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40">
@@ -1631,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41">
@@ -1642,7 +1486,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42">
@@ -1744,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>94.33500000000032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1755,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>91.7350000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1766,7 +1610,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>89.34500000000025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1777,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>99.37500000000034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1788,7 +1632,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>91.19000000000028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1799,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1810,7 +1654,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1821,7 +1665,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -1832,7 +1676,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -1843,7 +1687,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -1945,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -1956,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1967,7 +1811,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -1978,7 +1822,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1989,7 +1833,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -2000,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2011,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2022,7 +1866,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2033,7 +1877,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2044,7 +1888,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2055,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>10.34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2066,7 +1910,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2077,7 +1921,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>12.205</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2088,7 +1932,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>12.875</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2099,7 +1943,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>12.875</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2110,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2121,7 +1965,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2132,7 +1976,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2143,7 +1987,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2154,7 +1998,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2165,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2176,7 +2020,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2187,7 +2031,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2198,7 +2042,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2209,7 +2053,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,7 +2094,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2261,7 +2105,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2272,7 +2116,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2283,7 +2127,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2294,7 +2138,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2305,56 +2149,12 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
